--- a/app/assets/images/LabFilesReceived_FFO_20220113_62010_SLF_File1.xlsx
+++ b/app/assets/images/LabFilesReceived_FFO_20220113_62010_SLF_File1.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris.houlden/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E99B8-9B1E-0C41-9FAD-F2F7B91AD610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-25260" yWindow="-3580" windowWidth="15960" windowHeight="17500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Total Automatic matches" sheetId="2" r:id="rId5"/>
-    <sheet name="Total partial hits" sheetId="3" r:id="rId6"/>
-    <sheet name="Total non-hits" sheetId="4" r:id="rId7"/>
-    <sheet name="Total rejections (errors)" sheetId="5" r:id="rId8"/>
-    <sheet name="Total rejections (policy)" sheetId="6" r:id="rId9"/>
-    <sheet name="Rejections outstanding" sheetId="7" r:id="rId10"/>
-    <sheet name="Checked manual matches" sheetId="8" r:id="rId11"/>
-    <sheet name="Checked dummy registrations" sheetId="9" r:id="rId12"/>
-    <sheet name="Checked rejections removed" sheetId="10" r:id="rId13"/>
-    <sheet name="Checked rejected results resolv" sheetId="11" r:id="rId14"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Total Automatic matches" sheetId="2" r:id="rId2"/>
+    <sheet name="Total partial hits" sheetId="3" r:id="rId3"/>
+    <sheet name="Total non-hits" sheetId="4" r:id="rId4"/>
+    <sheet name="Total rejections (errors)" sheetId="5" r:id="rId5"/>
+    <sheet name="Total rejections (policy)" sheetId="6" r:id="rId6"/>
+    <sheet name="Cloned results" sheetId="12" r:id="rId7"/>
+    <sheet name="Rejections outstanding" sheetId="7" r:id="rId8"/>
+    <sheet name="Checked manual matches" sheetId="8" r:id="rId9"/>
+    <sheet name="Checked dummy registrations" sheetId="9" r:id="rId10"/>
+    <sheet name="Checked rejections removed" sheetId="10" r:id="rId11"/>
+    <sheet name="Checked rejected results resolv" sheetId="11" r:id="rId12"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="85">
   <si>
     <t>File 1 for Manchester (61234) area BAA received on 15/09/2021 at 11.30.10</t>
   </si>
@@ -273,36 +283,33 @@
   </si>
   <si>
     <t>Checked rejected results resolved</t>
+  </si>
+  <si>
+    <t>Cloned results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -344,89 +351,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,24 +397,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -654,7 +677,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -673,7 +696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,9 +947,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -943,7 +972,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -962,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1199,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,9 +1238,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1225,7 +1260,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1244,7 +1279,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,31 +1530,48 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.4453" style="1" customWidth="1"/>
-    <col min="2" max="17" width="8.73438" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.73438" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="8.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1538,9 +1590,10 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-    </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
@@ -1559,61 +1612,65 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s" s="2">
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s" s="2">
+      <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s" s="2">
+      <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" t="s" s="2">
+      <c r="R3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="16.6" customHeight="1">
+    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>8000</v>
       </c>
@@ -1636,37 +1693,40 @@
         <v>15</v>
       </c>
       <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>2400</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
       <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
       <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>6</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>2638</v>
       </c>
-      <c r="N4" s="6">
-        <v>0.293</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="O4" s="6">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="P4" s="4">
         <v>11</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>7</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="16.6" customHeight="1">
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1684,8 +1744,9 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-    </row>
-    <row r="6" ht="16.6" customHeight="1">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1703,8 +1764,9 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" ht="16.6" customHeight="1">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1722,8 +1784,9 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-    </row>
-    <row r="8" ht="16.6" customHeight="1">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1741,8 +1804,9 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" ht="16.6" customHeight="1">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1760,8 +1824,9 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" ht="16.6" customHeight="1">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1779,10 +1844,11 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1790,19 +1856,264 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="12" width="8.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>12345</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="15">
+        <v>34680</v>
+      </c>
+      <c r="E4" s="15">
+        <v>44487</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>12346</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15">
+        <v>34681</v>
+      </c>
+      <c r="E5" s="15">
+        <v>44488</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>12347</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15">
+        <v>34682</v>
+      </c>
+      <c r="E6" s="15">
+        <v>44489</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="8.73438" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="8.73438" style="24" customWidth="1"/>
+    <col min="1" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1818,188 +2129,188 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="16">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="16">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="16">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="16">
+      <c r="D3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s" s="16">
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s" s="16">
+      <c r="H3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="J3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s" s="16">
+      <c r="K3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s" s="16">
+      <c r="L3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M3" t="s" s="16">
+      <c r="M3" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>12345</v>
       </c>
-      <c r="B4" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="15">
         <v>34680</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>123451</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>44487</v>
       </c>
-      <c r="G4" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s" s="16">
+      <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s" s="16">
+      <c r="J4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K4" t="s" s="16">
+      <c r="K4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L4" t="s" s="16">
+      <c r="L4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M4" t="s" s="16">
+      <c r="M4" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>12346</v>
       </c>
-      <c r="B5" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15">
         <v>34681</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>123452</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>44488</v>
       </c>
-      <c r="G5" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s" s="16">
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s" s="16">
+      <c r="J5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s" s="16">
+      <c r="K5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L5" t="s" s="16">
+      <c r="L5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M5" t="s" s="16">
+      <c r="M5" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" ht="16.6" customHeight="1">
-      <c r="A6" s="18">
+    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>12347</v>
       </c>
-      <c r="B6" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15">
         <v>34682</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>123453</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>44489</v>
       </c>
-      <c r="G6" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s" s="16">
+      <c r="G6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s" s="16">
+      <c r="J6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K6" t="s" s="16">
+      <c r="K6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L6" t="s" s="16">
+      <c r="L6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="s" s="16">
+      <c r="M6" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" ht="16.6" customHeight="1">
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2014,7 +2325,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" ht="16.6" customHeight="1">
+    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2029,7 +2340,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" ht="16.6" customHeight="1">
+    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2044,7 +2355,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" ht="16.6" customHeight="1">
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2061,27 +2372,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="8.73438" style="25" customWidth="1"/>
-    <col min="14" max="16384" width="8.73438" style="25" customWidth="1"/>
+    <col min="1" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -2097,188 +2408,188 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="16">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="16">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="16">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="16">
+      <c r="D3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s" s="16">
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s" s="16">
+      <c r="H3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="J3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s" s="16">
+      <c r="K3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s" s="16">
+      <c r="L3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M3" t="s" s="16">
+      <c r="M3" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>12345</v>
       </c>
-      <c r="B4" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="15">
         <v>34680</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>123451</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>44487</v>
       </c>
-      <c r="G4" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s" s="16">
+      <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s" s="16">
+      <c r="J4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K4" t="s" s="16">
+      <c r="K4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L4" t="s" s="16">
+      <c r="L4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M4" t="s" s="16">
+      <c r="M4" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>12346</v>
       </c>
-      <c r="B5" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15">
         <v>34681</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>123452</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>44488</v>
       </c>
-      <c r="G5" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s" s="16">
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s" s="16">
+      <c r="J5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s" s="16">
+      <c r="K5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L5" t="s" s="16">
+      <c r="L5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M5" t="s" s="16">
+      <c r="M5" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" ht="16.6" customHeight="1">
-      <c r="A6" s="18">
+    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>12347</v>
       </c>
-      <c r="B6" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15">
         <v>34682</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>123453</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>44489</v>
       </c>
-      <c r="G6" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s" s="16">
+      <c r="G6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s" s="16">
+      <c r="J6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K6" t="s" s="16">
+      <c r="K6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L6" t="s" s="16">
+      <c r="L6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="s" s="16">
+      <c r="M6" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" ht="16.6" customHeight="1">
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2293,7 +2604,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" ht="16.6" customHeight="1">
+    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2308,7 +2619,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" ht="16.6" customHeight="1">
+    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2323,7 +2634,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" ht="16.6" customHeight="1">
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2340,7 +2651,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2348,940 +2659,940 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.86719" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.8672" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7" customWidth="1"/>
-    <col min="5" max="9" width="8.86719" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.86719" style="7" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="8">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" s="11">
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>12345</v>
       </c>
-      <c r="B4" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10">
         <v>34680</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>123451</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>44487</v>
       </c>
-      <c r="G4" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" s="11">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>12346</v>
       </c>
-      <c r="B5" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10">
         <v>34681</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>123452</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>44488</v>
       </c>
-      <c r="G5" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" ht="16.6" customHeight="1">
-      <c r="A6" s="11">
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>12347</v>
       </c>
-      <c r="B6" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10">
         <v>34682</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>123453</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>44489</v>
       </c>
-      <c r="G6" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" ht="16.6" customHeight="1">
-      <c r="A7" s="11">
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>12348</v>
       </c>
-      <c r="B7" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10">
         <v>34683</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>123454</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>44490</v>
       </c>
-      <c r="G7" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" ht="16.6" customHeight="1">
-      <c r="A8" s="11">
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>12349</v>
       </c>
-      <c r="B8" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="10">
         <v>34684</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>123455</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>44491</v>
       </c>
-      <c r="G8" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" ht="16.6" customHeight="1">
-      <c r="A9" s="11">
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>12350</v>
       </c>
-      <c r="B9" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10">
         <v>34685</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>123456</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>44492</v>
       </c>
-      <c r="G9" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" ht="16.6" customHeight="1">
-      <c r="A10" s="11">
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>12351</v>
       </c>
-      <c r="B10" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10">
         <v>34686</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>123457</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>44493</v>
       </c>
-      <c r="G10" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="10">
         <v>9</v>
       </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" ht="16.6" customHeight="1">
-      <c r="A11" s="11">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>12352</v>
       </c>
-      <c r="B11" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="10">
         <v>34687</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>123458</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>44494</v>
       </c>
-      <c r="G11" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="10">
         <v>9</v>
       </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" ht="16.6" customHeight="1">
-      <c r="A12" s="11">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>12353</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="10">
         <v>34688</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>123459</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>44495</v>
       </c>
-      <c r="G12" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="10">
         <v>9</v>
       </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" ht="16.6" customHeight="1">
-      <c r="A13" s="11">
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>12354</v>
       </c>
-      <c r="B13" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10">
         <v>34689</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>123460</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>44496</v>
       </c>
-      <c r="G13" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="10">
         <v>9</v>
       </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" ht="16.6" customHeight="1">
-      <c r="A14" s="11">
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>12355</v>
       </c>
-      <c r="B14" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="10">
         <v>34690</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>123461</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>44497</v>
       </c>
-      <c r="G14" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="10">
         <v>9</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" ht="16.6" customHeight="1">
-      <c r="A15" s="11">
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>12356</v>
       </c>
-      <c r="B15" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10">
         <v>34691</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>123462</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>44498</v>
       </c>
-      <c r="G15" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="10">
         <v>9</v>
       </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" ht="16.6" customHeight="1">
-      <c r="A16" s="11">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>12357</v>
       </c>
-      <c r="B16" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="10">
         <v>34692</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>123463</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>44499</v>
       </c>
-      <c r="G16" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="G16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="10">
         <v>9</v>
       </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" ht="16.6" customHeight="1">
-      <c r="A17" s="11">
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>12358</v>
       </c>
-      <c r="B17" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10">
         <v>34693</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>123464</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>44500</v>
       </c>
-      <c r="G17" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="G17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="10">
         <v>9</v>
       </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" ht="16.6" customHeight="1">
-      <c r="A18" s="11">
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>12359</v>
       </c>
-      <c r="B18" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="10">
         <v>34694</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>123465</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>44501</v>
       </c>
-      <c r="G18" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="10">
         <v>9</v>
       </c>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" ht="16.6" customHeight="1">
-      <c r="A19" s="11">
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>12360</v>
       </c>
-      <c r="B19" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="10">
         <v>34695</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>123466</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>44502</v>
       </c>
-      <c r="G19" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="G19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="10">
         <v>9</v>
       </c>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" ht="16.6" customHeight="1">
-      <c r="A20" s="11">
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>12361</v>
       </c>
-      <c r="B20" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="10">
         <v>34696</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>123467</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>44503</v>
       </c>
-      <c r="G20" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="G20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="10">
         <v>9</v>
       </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" ht="16.6" customHeight="1">
-      <c r="A21" s="11">
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>12362</v>
       </c>
-      <c r="B21" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10">
         <v>34697</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>123468</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>44504</v>
       </c>
-      <c r="G21" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="10">
         <v>9</v>
       </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" ht="16.6" customHeight="1">
-      <c r="A22" s="11">
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>12363</v>
       </c>
-      <c r="B22" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="10">
         <v>34698</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>123469</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>44505</v>
       </c>
-      <c r="G22" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="G22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="10">
         <v>9</v>
       </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" ht="16.6" customHeight="1">
-      <c r="A23" s="11">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>12364</v>
       </c>
-      <c r="B23" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="10">
         <v>34699</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>123470</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>44506</v>
       </c>
-      <c r="G23" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="G23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="10">
         <v>9</v>
       </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" ht="16.6" customHeight="1">
-      <c r="A24" s="11">
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
         <v>12365</v>
       </c>
-      <c r="B24" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="10">
         <v>34700</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>123471</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>44507</v>
       </c>
-      <c r="G24" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="10">
         <v>9</v>
       </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" ht="16.6" customHeight="1">
-      <c r="A25" s="11">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>12366</v>
       </c>
-      <c r="B25" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="10">
         <v>34701</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>123472</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>44508</v>
       </c>
-      <c r="G25" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="G25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="10">
         <v>9</v>
       </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" ht="16.6" customHeight="1">
-      <c r="A26" s="11">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>12367</v>
       </c>
-      <c r="B26" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="B26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="10">
         <v>34702</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>123473</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>44509</v>
       </c>
-      <c r="G26" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="G26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="10">
         <v>9</v>
       </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" ht="16.6" customHeight="1">
-      <c r="A27" s="11">
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
         <v>12368</v>
       </c>
-      <c r="B27" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="10">
         <v>34703</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>123474</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>44510</v>
       </c>
-      <c r="G27" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H27" s="11">
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="10">
         <v>9</v>
       </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" ht="16.6" customHeight="1">
-      <c r="A28" s="11">
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
         <v>12369</v>
       </c>
-      <c r="B28" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="B28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="10">
         <v>34704</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>123475</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>44511</v>
       </c>
-      <c r="G28" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="G28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="10">
         <v>9</v>
       </c>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" ht="16.6" customHeight="1">
-      <c r="A29" s="11">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
         <v>12370</v>
       </c>
-      <c r="B29" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="B29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="10">
         <v>34705</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>123476</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>44512</v>
       </c>
-      <c r="G29" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="G29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="10">
         <v>9</v>
       </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" ht="16.6" customHeight="1">
-      <c r="A30" s="11">
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
         <v>12371</v>
       </c>
-      <c r="B30" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="B30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="10">
         <v>34706</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>123477</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>44513</v>
       </c>
-      <c r="G30" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="10">
         <v>9</v>
       </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" ht="16.6" customHeight="1">
-      <c r="A31" s="11">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
         <v>12372</v>
       </c>
-      <c r="B31" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="B31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="10">
         <v>34707</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>123478</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>44514</v>
       </c>
-      <c r="G31" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H31" s="11">
+      <c r="G31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="10">
         <v>9</v>
       </c>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" ht="16.6" customHeight="1">
-      <c r="A32" s="11">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
         <v>12373</v>
       </c>
-      <c r="B32" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="B32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="10">
         <v>34708</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>123479</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>44515</v>
       </c>
-      <c r="G32" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H32" s="11">
+      <c r="G32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="10">
         <v>9</v>
       </c>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" ht="16.6" customHeight="1">
-      <c r="A33" s="11">
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
         <v>12374</v>
       </c>
-      <c r="B33" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D33" s="11">
+      <c r="B33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="10">
         <v>34709</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>123480</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>44516</v>
       </c>
-      <c r="G33" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H33" s="11">
+      <c r="G33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="10">
         <v>9</v>
       </c>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" ht="16.6" customHeight="1">
-      <c r="A34" s="11">
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
         <v>12375</v>
       </c>
-      <c r="B34" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="B34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="10">
         <v>34710</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>123481</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>44517</v>
       </c>
-      <c r="G34" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H34" s="11">
+      <c r="G34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="10">
         <v>9</v>
       </c>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" ht="16.6" customHeight="1">
-      <c r="A35" s="11">
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
         <v>12376</v>
       </c>
-      <c r="B35" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="B35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="10">
         <v>34711</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>123482</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>44518</v>
       </c>
-      <c r="G35" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H35" s="11">
+      <c r="G35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="10">
         <v>9</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3289,270 +3600,270 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="8.86719" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="8.86719" style="12" customWidth="1"/>
+    <col min="1" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="8">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" s="11">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>12345</v>
       </c>
-      <c r="B4" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11">
         <v>34680</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>123451</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>44487</v>
       </c>
-      <c r="G4" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s" s="8">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" s="11">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>12346</v>
       </c>
-      <c r="B5" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="11">
         <v>34681</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>123452</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>44488</v>
       </c>
-      <c r="G5" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s" s="8">
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" ht="16.6" customHeight="1">
-      <c r="A6" s="11">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>12347</v>
       </c>
-      <c r="B6" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11">
         <v>34682</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>123453</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>44489</v>
       </c>
-      <c r="G6" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s" s="8">
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" ht="16.6" customHeight="1">
-      <c r="A7" s="11">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>12348</v>
       </c>
-      <c r="B7" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="11">
         <v>34683</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>123454</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>44490</v>
       </c>
-      <c r="G7" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s" s="8">
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="16.6" customHeight="1">
-      <c r="A8" s="11">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>12349</v>
       </c>
-      <c r="B8" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11">
         <v>34684</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>123455</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>44491</v>
       </c>
-      <c r="G8" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s" s="8">
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="16.6" customHeight="1">
-      <c r="A9" s="11">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>12350</v>
       </c>
-      <c r="B9" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11">
         <v>34685</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>123456</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>44492</v>
       </c>
-      <c r="G9" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s" s="8">
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="16.6" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3560,270 +3871,270 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="8.86719" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="8.86719" style="14" customWidth="1"/>
+    <col min="1" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="8">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" s="11">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>12345</v>
       </c>
-      <c r="B4" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11">
         <v>34680</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>123451</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>44487</v>
       </c>
-      <c r="G4" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s" s="8">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" s="11">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>12346</v>
       </c>
-      <c r="B5" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="11">
         <v>34681</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>123452</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>44488</v>
       </c>
-      <c r="G5" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s" s="8">
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" ht="16.6" customHeight="1">
-      <c r="A6" s="11">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>12347</v>
       </c>
-      <c r="B6" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11">
         <v>34682</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>123453</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>44489</v>
       </c>
-      <c r="G6" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s" s="8">
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" ht="16.6" customHeight="1">
-      <c r="A7" s="11">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>12348</v>
       </c>
-      <c r="B7" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="11">
         <v>34683</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>123454</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>44490</v>
       </c>
-      <c r="G7" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s" s="8">
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="16.6" customHeight="1">
-      <c r="A8" s="11">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>12349</v>
       </c>
-      <c r="B8" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11">
         <v>34684</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>123455</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>44491</v>
       </c>
-      <c r="G8" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s" s="8">
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="16.6" customHeight="1">
-      <c r="A9" s="11">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>12350</v>
       </c>
-      <c r="B9" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11">
         <v>34685</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>123456</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>44492</v>
       </c>
-      <c r="G9" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s" s="8">
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="16.6" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3831,21 +4142,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="8.73438" style="15" customWidth="1"/>
-    <col min="10" max="10" width="14.4453" style="15" customWidth="1"/>
-    <col min="11" max="11" width="8.73438" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="8.73438" style="15" customWidth="1"/>
+    <col min="1" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -3859,267 +4170,267 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="16">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="16">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="16">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="16">
+      <c r="D3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s" s="16">
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s" s="16">
+      <c r="H3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="J3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s" s="16">
+      <c r="K3" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>12345</v>
       </c>
-      <c r="B4" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="15">
         <v>34680</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>123451</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>44487</v>
       </c>
-      <c r="G4" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s" s="16">
+      <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s" s="16">
+      <c r="J4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="s" s="16">
+      <c r="K4" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>12346</v>
       </c>
-      <c r="B5" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15">
         <v>34681</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>123452</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>44488</v>
       </c>
-      <c r="G5" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s" s="16">
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s" s="16">
+      <c r="J5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s" s="16">
+      <c r="K5" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="16.6" customHeight="1">
-      <c r="A6" s="18">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>12347</v>
       </c>
-      <c r="B6" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15">
         <v>34682</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>123453</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>44489</v>
       </c>
-      <c r="G6" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s" s="16">
+      <c r="G6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s" s="16">
+      <c r="J6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="s" s="16">
+      <c r="K6" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" ht="16.6" customHeight="1">
-      <c r="A7" s="18">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>12348</v>
       </c>
-      <c r="B7" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15">
         <v>34683</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>123454</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="15">
         <v>44490</v>
       </c>
-      <c r="G7" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s" s="16">
+      <c r="G7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s" s="16">
+      <c r="J7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K7" t="s" s="16">
+      <c r="K7" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" ht="16.6" customHeight="1">
-      <c r="A8" s="18">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>12349</v>
       </c>
-      <c r="B8" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="15">
         <v>34684</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="14">
         <v>123455</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <v>44491</v>
       </c>
-      <c r="G8" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s" s="16">
+      <c r="G8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s" s="16">
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" t="s" s="16">
+      <c r="K8" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" ht="16.6" customHeight="1">
-      <c r="A9" s="18">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>12350</v>
       </c>
-      <c r="B9" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="15">
         <v>34685</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <v>123456</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <v>44492</v>
       </c>
-      <c r="G9" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s" s="16">
+      <c r="G9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s" s="16">
+      <c r="J9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K9" t="s" s="16">
+      <c r="K9" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" ht="16.6" customHeight="1">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4134,7 +4445,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4142,21 +4453,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="8.73438" style="20" customWidth="1"/>
-    <col min="10" max="10" width="29.4453" style="20" customWidth="1"/>
-    <col min="11" max="11" width="8.73438" style="20" customWidth="1"/>
-    <col min="12" max="16384" width="8.73438" style="20" customWidth="1"/>
+    <col min="1" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -4170,197 +4483,197 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="16">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="16">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="16">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="16">
+      <c r="D3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s" s="16">
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s" s="16">
+      <c r="H3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="J3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s" s="16">
+      <c r="K3" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>12345</v>
       </c>
-      <c r="B4" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="15">
         <v>34680</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>123451</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>44487</v>
       </c>
-      <c r="G4" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s" s="16">
+      <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s" s="16">
+      <c r="J4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K4" t="s" s="16">
+      <c r="K4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>12346</v>
       </c>
-      <c r="B5" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15">
         <v>34681</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>123452</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>44488</v>
       </c>
-      <c r="G5" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s" s="16">
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s" s="16">
+      <c r="J5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K5" t="s" s="16">
+      <c r="K5" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" ht="16.6" customHeight="1">
-      <c r="A6" s="18">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>12347</v>
       </c>
-      <c r="B6" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15">
         <v>34682</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>123453</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>44489</v>
       </c>
-      <c r="G6" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s" s="16">
+      <c r="G6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s" s="16">
+      <c r="J6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s" s="16">
+      <c r="K6" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" ht="16.6" customHeight="1">
-      <c r="A7" s="18">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>12348</v>
       </c>
-      <c r="B7" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15">
         <v>34683</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>123454</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="15">
         <v>44490</v>
       </c>
-      <c r="G7" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s" s="16">
+      <c r="G7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s" s="16">
+      <c r="J7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K7" t="s" s="16">
+      <c r="K7" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" ht="16.6" customHeight="1">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4373,7 +4686,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="16.6" customHeight="1">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4386,7 +4699,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="16.6" customHeight="1">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4401,7 +4714,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4409,21 +4722,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145131A8-8C54-3B47-BD1F-71B369285067}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="3" width="8.73438" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9" style="21" customWidth="1"/>
-    <col min="5" max="11" width="8.73438" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="8.73438" style="21" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -4437,197 +4746,281 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="16">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="12" width="8.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="16">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="16">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="16">
+      <c r="D3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s" s="16">
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s" s="16">
+      <c r="H3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="J3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s" s="16">
+      <c r="K3" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>12345</v>
       </c>
-      <c r="B4" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="15">
         <v>34680</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>123451</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>44487</v>
       </c>
-      <c r="G4" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s" s="16">
+      <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s" s="16">
+      <c r="J4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K4" t="s" s="16">
+      <c r="K4" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>12346</v>
       </c>
-      <c r="B5" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15">
         <v>34681</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>123452</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>44488</v>
       </c>
-      <c r="G5" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s" s="16">
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s" s="16">
+      <c r="J5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K5" t="s" s="16">
+      <c r="K5" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="16.6" customHeight="1">
-      <c r="A6" s="18">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>12347</v>
       </c>
-      <c r="B6" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15">
         <v>34682</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>123453</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>44489</v>
       </c>
-      <c r="G6" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s" s="16">
+      <c r="G6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s" s="16">
+      <c r="J6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s" s="16">
+      <c r="K6" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" ht="16.6" customHeight="1">
-      <c r="A7" s="18">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>12348</v>
       </c>
-      <c r="B7" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15">
         <v>34683</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>123454</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="15">
         <v>44490</v>
       </c>
-      <c r="G7" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s" s="16">
+      <c r="G7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s" s="16">
+      <c r="J7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K7" t="s" s="16">
+      <c r="K7" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" ht="16.6" customHeight="1">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4640,7 +5033,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="16.6" customHeight="1">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4653,7 +5046,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="16.6" customHeight="1">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4668,296 +5061,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="2" width="8.86719" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.2891" style="22" customWidth="1"/>
-    <col min="4" max="4" width="13.7344" style="22" customWidth="1"/>
-    <col min="5" max="5" width="10.2891" style="22" customWidth="1"/>
-    <col min="6" max="12" width="8.86719" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="8.86719" style="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="H3" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="K3" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="L3" t="s" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C4" s="13">
-        <v>34680</v>
-      </c>
-      <c r="D4" s="11">
-        <v>123451</v>
-      </c>
-      <c r="E4" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="J4" s="13">
-        <v>34680</v>
-      </c>
-      <c r="K4" s="11">
-        <v>123451</v>
-      </c>
-      <c r="L4" t="s" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C5" s="13">
-        <v>34681</v>
-      </c>
-      <c r="D5" s="11">
-        <v>123452</v>
-      </c>
-      <c r="E5" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="J5" s="13">
-        <v>34681</v>
-      </c>
-      <c r="K5" s="11">
-        <v>123452</v>
-      </c>
-      <c r="L5" t="s" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" ht="16.6" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C6" s="13">
-        <v>34682</v>
-      </c>
-      <c r="D6" s="11">
-        <v>123453</v>
-      </c>
-      <c r="E6" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="G6" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="H6" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="J6" s="13">
-        <v>34682</v>
-      </c>
-      <c r="K6" s="11">
-        <v>123453</v>
-      </c>
-      <c r="L6" t="s" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" ht="16.6" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C7" s="13">
-        <v>34683</v>
-      </c>
-      <c r="D7" s="11">
-        <v>123454</v>
-      </c>
-      <c r="E7" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="G7" t="s" s="8">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="J7" s="13">
-        <v>34683</v>
-      </c>
-      <c r="K7" s="11">
-        <v>123454</v>
-      </c>
-      <c r="L7" t="s" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" ht="16.6" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" ht="16.6" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" ht="16.6" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4965,244 +5069,288 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.73438" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="23" customWidth="1"/>
-    <col min="5" max="11" width="8.73438" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="8.73438" style="23" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="13" width="8.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" ht="16.6" customHeight="1">
-      <c r="A2" t="s" s="16">
-        <v>76</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s" s="16">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="16">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="16">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s" s="16">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s" s="16">
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="F3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="G3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K3" t="s" s="16">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" s="18">
-        <v>12345</v>
-      </c>
-      <c r="B4" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="H3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="11">
         <v>34680</v>
       </c>
-      <c r="E4" s="19">
-        <v>44487</v>
-      </c>
-      <c r="F4" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s" s="16">
+      <c r="D4" s="10">
+        <v>123451</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s" s="16">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s" s="16">
+      <c r="F4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K4" t="s" s="16">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" ht="16.6" customHeight="1">
-      <c r="A5" s="18">
-        <v>12346</v>
-      </c>
-      <c r="B5" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="H4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="11">
+        <v>34680</v>
+      </c>
+      <c r="K4" s="10">
+        <v>123451</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11">
         <v>34681</v>
       </c>
-      <c r="E5" s="19">
-        <v>44488</v>
-      </c>
-      <c r="F5" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s" s="16">
+      <c r="D5" s="10">
+        <v>123452</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s" s="16">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s" s="16">
+      <c r="F5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s" s="16">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" ht="16.6" customHeight="1">
-      <c r="A6" s="18">
-        <v>12347</v>
-      </c>
-      <c r="B6" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="H5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="11">
+        <v>34681</v>
+      </c>
+      <c r="K5" s="10">
+        <v>123452</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="11">
         <v>34682</v>
       </c>
-      <c r="E6" s="19">
-        <v>44489</v>
-      </c>
-      <c r="F6" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s" s="16">
+      <c r="D6" s="10">
+        <v>123453</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s" s="16">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s" s="16">
+      <c r="F6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K6" t="s" s="16">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" ht="16.6" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" ht="16.6" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" ht="16.6" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" ht="16.6" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="H6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="11">
+        <v>34682</v>
+      </c>
+      <c r="K6" s="10">
+        <v>123453</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11">
+        <v>34683</v>
+      </c>
+      <c r="D7" s="10">
+        <v>123454</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="11">
+        <v>34683</v>
+      </c>
+      <c r="K7" s="10">
+        <v>123454</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/app/assets/images/LabFilesReceived_FFO_20220113_62010_SLF_File1.xlsx
+++ b/app/assets/images/LabFilesReceived_FFO_20220113_62010_SLF_File1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris.houlden/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5E99B8-9B1E-0C41-9FAD-F2F7B91AD610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F32B02D9-CB6D-3E48-9CF6-C1FCE470EE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25260" yWindow="-3580" windowWidth="15960" windowHeight="17500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Total non-hits" sheetId="4" r:id="rId4"/>
     <sheet name="Total rejections (errors)" sheetId="5" r:id="rId5"/>
     <sheet name="Total rejections (policy)" sheetId="6" r:id="rId6"/>
-    <sheet name="Cloned results" sheetId="12" r:id="rId7"/>
+    <sheet name="Re-issued results" sheetId="12" r:id="rId7"/>
     <sheet name="Rejections outstanding" sheetId="7" r:id="rId8"/>
     <sheet name="Checked manual matches" sheetId="8" r:id="rId9"/>
     <sheet name="Checked dummy registrations" sheetId="9" r:id="rId10"/>
@@ -285,7 +285,7 @@
     <t>Checked rejected results resolved</t>
   </si>
   <si>
-    <t>Cloned results</t>
+    <t>Re-issued results</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -389,6 +389,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1551,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4725,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145131A8-8C54-3B47-BD1F-71B369285067}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4747,8 +4750,8 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>49</v>
+      <c r="A2" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
